--- a/пр7.xlsx
+++ b/пр7.xlsx
@@ -315,12 +315,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.00000%"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000%"/>
+    <numFmt numFmtId="172" formatCode="0.000000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -356,7 +358,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +395,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -422,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,13 +454,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -483,21 +491,28 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,53 +572,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>146173</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4038601"/>
-          <a:ext cx="9734550" cy="5327772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -618,7 +586,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -946,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1773,15 +1741,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18">
@@ -1830,8 +1798,8 @@
         <v>0.8</v>
       </c>
       <c r="C2" s="4">
-        <f>SQRT(0.8*(A2^2)+1)/(A2+SQRT(1.5*(A2^2)+2))</f>
-        <v>0.70710678118654746</v>
+        <f>SQRT(0.8*(B2^2)+1)/(B2+SQRT(1.5*(B2^2)+2))</f>
+        <v>0.48786000434811372</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1840,12 +1808,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F2" s="3">
-        <f>D2*B2</f>
-        <v>0.8</v>
+        <f>D2*C2</f>
+        <v>0.48786000434811372</v>
       </c>
       <c r="G2" s="19">
-        <f>E2*B2</f>
-        <v>0.26666666666666666</v>
+        <f>E2*C2</f>
+        <v>0.16262000144937122</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
@@ -1865,13 +1833,13 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="19">
         <f>B2+$Q$1</f>
         <v>0.85000000000000009</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C18" si="0">SQRT(0.8*(A3^2)+1)/(A3+SQRT(1.5*(A3^2)+2))</f>
-        <v>0.4673357172409412</v>
+        <f t="shared" ref="C3:C22" si="0">SQRT(0.8*(B3^2)+1)/(B3+SQRT(1.5*(B3^2)+2))</f>
+        <v>0.48202430109928929</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1880,12 +1848,12 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F22" si="1">D3*B3</f>
-        <v>0.85000000000000009</v>
+        <f t="shared" ref="F3:F22" si="1">D3*C3</f>
+        <v>0.48202430109928929</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G22" si="2">E3*B3</f>
-        <v>1.1333333333333333</v>
+        <f t="shared" ref="G3:G23" si="2">E3*C3</f>
+        <v>0.64269906813238564</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="23"/>
@@ -1911,7 +1879,7 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>0.42444259802298406</v>
+        <v>0.47668936152094671</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1921,11 +1889,11 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" si="1"/>
-        <v>0.90000000000000013</v>
+        <v>0.47668936152094671</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <v>0.31779290768063112</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="23"/>
@@ -1951,7 +1919,7 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>0.41279552940418529</v>
+        <v>0.47180755141179753</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1961,11 +1929,11 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="1"/>
-        <v>0.95000000000000018</v>
+        <v>0.47180755141179753</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="2"/>
-        <v>1.2666666666666668</v>
+        <v>0.62907673521573004</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
@@ -1985,7 +1953,7 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>0.40826762912771514</v>
+        <v>0.46733571724094103</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1995,11 +1963,11 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002</v>
+        <v>0.46733571724094103</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
+        <v>0.31155714482729402</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="23"/>
@@ -2019,7 +1987,7 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>0.40608021883104395</v>
+        <v>0.46323485311558127</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -2029,11 +1997,11 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>1.0500000000000003</v>
+        <v>0.46323485311558127</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" si="2"/>
-        <v>1.4000000000000004</v>
+        <v>0.61764647082077495</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
@@ -2053,7 +2021,7 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>0.40486614139514415</v>
+        <v>0.45946976463122485</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2063,11 +2031,11 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>1.1000000000000003</v>
+        <v>0.45946976463122485</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="2"/>
-        <v>0.7333333333333335</v>
+        <v>0.30631317642081657</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="23"/>
@@ -2087,7 +2055,7 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>0.40412500800994483</v>
+        <v>0.45600873906338052</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2097,11 +2065,11 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>1.1500000000000004</v>
+        <v>0.45600873906338052</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" si="2"/>
-        <v>1.5333333333333337</v>
+        <v>0.60801165208450736</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
@@ -2128,7 +2096,7 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>0.40364025760846661</v>
+        <v>0.452823228543075</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -2138,11 +2106,11 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>1.2000000000000004</v>
+        <v>0.452823228543075</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>0.80000000000000027</v>
+        <v>0.30188215236204996</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
@@ -2162,7 +2130,7 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>0.4033061989248457</v>
+        <v>0.44988755059773483</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -2172,11 +2140,11 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>1.2500000000000004</v>
+        <v>0.44988755059773483</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="2"/>
-        <v>1.6666666666666672</v>
+        <v>0.59985006746364644</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
@@ -2188,9 +2156,9 @@
       <c r="Q11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="33">
         <f>ABS(F26-R9)</f>
-        <v>0.82421345965729742</v>
+        <v>1.4948666809154743E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2203,7 +2171,7 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>0.40306638564310726</v>
+        <v>0.44717860867596482</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -2213,11 +2181,11 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>1.3000000000000005</v>
+        <v>0.44717860867596482</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" si="2"/>
-        <v>0.86666666666666692</v>
+        <v>0.29811907245064317</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
@@ -2229,9 +2197,9 @@
       <c r="Q12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="33">
         <f>ABS(G26-R9)</f>
-        <v>0.84921345965729755</v>
+        <v>1.3294249923134771E-8</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2244,7 +2212,7 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>0.40288848492911838</v>
+        <v>0.44467563393868587</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -2254,11 +2222,11 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>1.3500000000000005</v>
+        <v>0.44467563393868587</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="2"/>
-        <v>1.8000000000000007</v>
+        <v>0.59290084525158115</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
@@ -2267,8 +2235,8 @@
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="3">
@@ -2280,7 +2248,7 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>0.40275291035215571</v>
+        <v>0.44235994861706029</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -2290,11 +2258,11 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>1.4000000000000006</v>
+        <v>0.44235994861706029</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="2"/>
-        <v>0.93333333333333368</v>
+        <v>0.29490663241137349</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
@@ -2303,8 +2271,8 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="3">
@@ -2316,7 +2284,7 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>0.40264724161464288</v>
+        <v>0.44021475054088954</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -2326,11 +2294,11 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>1.4500000000000006</v>
+        <v>0.44021475054088954</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="2"/>
-        <v>1.933333333333334</v>
+        <v>0.58695300072118606</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
@@ -2339,8 +2307,8 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
@@ -2352,7 +2320,7 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>0.40256329691089771</v>
+        <v>0.43822491796862018</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2362,11 +2330,11 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>1.5000000000000007</v>
+        <v>0.43822491796862018</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="2"/>
-        <v>1.0000000000000004</v>
+        <v>0.29214994531241345</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
@@ -2386,7 +2354,7 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>0.40249551012497631</v>
+        <v>0.43637683354959</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -2396,11 +2364,11 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>1.5500000000000007</v>
+        <v>0.43637683354959</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" si="2"/>
-        <v>2.0666666666666673</v>
+        <v>0.58183577806611997</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
@@ -2420,7 +2388,7 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>0.40243998868875369</v>
+        <v>0.43465822607762861</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -2430,11 +2398,11 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>1.6000000000000008</v>
+        <v>0.43465822607762861</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="2"/>
-        <v>1.0666666666666671</v>
+        <v>0.28977215071841905</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
@@ -2448,7 +2416,7 @@
       </c>
       <c r="R18" s="34">
         <f>R11/$R$9</f>
-        <v>1.8283896831318496</v>
+        <v>3.3161298023206874E-3</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18">
@@ -2460,8 +2428,8 @@
         <v>1.6500000000000008</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:C22" si="4">SQRT(0.8*(A19^2)+1)/(A19+SQRT(1.5*(A19^2)+2))</f>
-        <v>0.40239394456536376</v>
+        <f t="shared" si="0"/>
+        <v>0.43305802861789505</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2471,11 +2439,11 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>1.6500000000000008</v>
+        <v>0.43305802861789505</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="2"/>
-        <v>2.2000000000000011</v>
+        <v>0.57741070482386003</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
@@ -2488,8 +2456,8 @@
         <v>34</v>
       </c>
       <c r="R19" s="34">
-        <f t="shared" ref="R19:R22" si="5">R12/$R$9</f>
-        <v>1.8838483043697292</v>
+        <f t="shared" ref="R19" si="4">R12/$R$9</f>
+        <v>2.9491230845153536E-8</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2501,8 +2469,8 @@
         <v>1.7000000000000008</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="4"/>
-        <v>0.40235533865697398</v>
+        <f t="shared" si="0"/>
+        <v>0.43156625157863893</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2512,11 +2480,11 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>1.7000000000000008</v>
+        <v>0.43156625157863893</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="2"/>
-        <v>1.1333333333333337</v>
+        <v>0.28771083438575928</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
@@ -2525,8 +2493,8 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="32"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
@@ -2537,8 +2505,8 @@
         <v>1.7500000000000009</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="4"/>
-        <v>0.40232265187132921</v>
+        <f t="shared" si="0"/>
+        <v>0.43017386933531004</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -2548,11 +2516,11 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>1.7500000000000009</v>
+        <v>0.43017386933531004</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="2"/>
-        <v>2.3333333333333344</v>
+        <v>0.57356515911374673</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
@@ -2561,8 +2529,8 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
@@ -2573,8 +2541,8 @@
         <v>1.8000000000000009</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="4"/>
-        <v>0.40229473381861414</v>
+        <f t="shared" si="0"/>
+        <v>0.42887271908024577</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -2588,12 +2556,12 @@
       </c>
       <c r="G22" s="19">
         <f t="shared" si="2"/>
-        <v>0.60000000000000031</v>
+        <v>0.14295757302674858</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="6"/>
@@ -2601,31 +2569,31 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="28">
+      <c r="F23" s="35">
         <f>SUM(F2:F22)</f>
-        <v>25.500000000000007</v>
-      </c>
-      <c r="G23" s="19">
+        <v>9.0456281404723686</v>
+      </c>
+      <c r="G23" s="36">
         <f>SUM(G2:G22)</f>
-        <v>26.000000000000007</v>
+        <v>9.015731072739058</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="F26" s="3">
+      <c r="F26" s="37">
         <f>F23*$Q$1</f>
-        <v>1.2750000000000004</v>
-      </c>
-      <c r="G26" s="3">
+        <v>0.45228140702361846</v>
+      </c>
+      <c r="G26" s="37">
         <f>G23*$Q$1</f>
-        <v>1.3000000000000005</v>
+        <v>0.45078655363695291</v>
       </c>
     </row>
   </sheetData>
